--- a/simulation_data/iterative_algorithm/i_error_level_6_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_6_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.07520058089891</v>
+        <v>90.01595337057651</v>
       </c>
       <c r="D2" t="n">
-        <v>6.970343646635951</v>
+        <v>6.69921690205266</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.70709023784417</v>
+        <v>89.54910899766081</v>
       </c>
       <c r="D3" t="n">
-        <v>6.815725131701529</v>
+        <v>5.984989932173485</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.79607143812291</v>
+        <v>88.4235070348239</v>
       </c>
       <c r="D4" t="n">
-        <v>5.855197316069888</v>
+        <v>5.454351534858852</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.32856085269519</v>
+        <v>87.49869921334377</v>
       </c>
       <c r="D5" t="n">
-        <v>6.265266136586582</v>
+        <v>5.997060706259299</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.38289469543997</v>
+        <v>84.70477395690722</v>
       </c>
       <c r="D6" t="n">
-        <v>6.63287595715907</v>
+        <v>6.976943214260896</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.61774005695924</v>
+        <v>84.90644426620065</v>
       </c>
       <c r="D7" t="n">
-        <v>6.657655465256102</v>
+        <v>6.767010877839464</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.77830371526905</v>
+        <v>83.93905236023271</v>
       </c>
       <c r="D8" t="n">
-        <v>6.227703383656936</v>
+        <v>6.114624953137168</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.99894201278696</v>
+        <v>82.63040024204604</v>
       </c>
       <c r="D9" t="n">
-        <v>6.013789000244397</v>
+        <v>5.924410865381184</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.0561887329544</v>
+        <v>82.44843463365662</v>
       </c>
       <c r="D10" t="n">
-        <v>6.676170026299105</v>
+        <v>5.98462504844593</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.0085483273386</v>
+        <v>81.22358697081114</v>
       </c>
       <c r="D11" t="n">
-        <v>6.64904648701231</v>
+        <v>6.156913725608821</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.32282395504284</v>
+        <v>80.86855444229622</v>
       </c>
       <c r="D12" t="n">
-        <v>7.120928192911077</v>
+        <v>6.664824473133788</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.45970974956853</v>
+        <v>78.47261692249671</v>
       </c>
       <c r="D13" t="n">
-        <v>6.439577194555513</v>
+        <v>5.586944596619777</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.79225957050571</v>
+        <v>77.90777139742386</v>
       </c>
       <c r="D14" t="n">
-        <v>6.745205747610191</v>
+        <v>6.320895155107311</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.37866505569505</v>
+        <v>77.0938785567518</v>
       </c>
       <c r="D15" t="n">
-        <v>6.919712960940793</v>
+        <v>5.866859538274207</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.42332387631218</v>
+        <v>75.36151469497321</v>
       </c>
       <c r="D16" t="n">
-        <v>6.644125737798385</v>
+        <v>7.051444445703994</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.74079165778144</v>
+        <v>75.25754230227258</v>
       </c>
       <c r="D17" t="n">
-        <v>6.735074821250884</v>
+        <v>6.508042321019457</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.27764117194428</v>
+        <v>73.63322241764099</v>
       </c>
       <c r="D18" t="n">
-        <v>6.495157627680182</v>
+        <v>6.837080602228483</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.14182645731221</v>
+        <v>72.64081837807805</v>
       </c>
       <c r="D19" t="n">
-        <v>6.928940193999781</v>
+        <v>6.10131008307854</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.5241320194074</v>
+        <v>71.85490737037536</v>
       </c>
       <c r="D20" t="n">
-        <v>6.867511028446732</v>
+        <v>6.769184396976104</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.37178412535637</v>
+        <v>71.31339128431462</v>
       </c>
       <c r="D21" t="n">
-        <v>6.756925853292167</v>
+        <v>5.807036280638111</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.39869872027111</v>
+        <v>69.30320734684307</v>
       </c>
       <c r="D22" t="n">
-        <v>5.50797347820187</v>
+        <v>6.076288078448976</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.2443390244572</v>
+        <v>67.67115221725405</v>
       </c>
       <c r="D23" t="n">
-        <v>5.791376169593811</v>
+        <v>5.923020477515911</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.56144867336081</v>
+        <v>68.61758006163075</v>
       </c>
       <c r="D24" t="n">
-        <v>6.184109261548458</v>
+        <v>5.911213124520037</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.42991019508588</v>
+        <v>66.89596034709697</v>
       </c>
       <c r="D25" t="n">
-        <v>6.474302678561967</v>
+        <v>6.141702852286634</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.62207043159076</v>
+        <v>66.59624462238862</v>
       </c>
       <c r="D26" t="n">
-        <v>6.367860461312848</v>
+        <v>6.409159836101058</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.38655830127233</v>
+        <v>65.94191912634251</v>
       </c>
       <c r="D27" t="n">
-        <v>6.380800491969831</v>
+        <v>5.644899566573927</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.99347064334532</v>
+        <v>64.46516800819296</v>
       </c>
       <c r="D28" t="n">
-        <v>6.203249708142219</v>
+        <v>7.588543047468931</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.59987440806687</v>
+        <v>63.21232178110585</v>
       </c>
       <c r="D29" t="n">
-        <v>6.998913196727797</v>
+        <v>7.01051413054122</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.31202328819553</v>
+        <v>62.6140501786588</v>
       </c>
       <c r="D30" t="n">
-        <v>6.234970808048685</v>
+        <v>6.261666654378425</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.38948671146689</v>
+        <v>60.95015865432688</v>
       </c>
       <c r="D31" t="n">
-        <v>6.670727221342634</v>
+        <v>5.643300952337372</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.03867073195252</v>
+        <v>60.55007088574492</v>
       </c>
       <c r="D32" t="n">
-        <v>6.935140026768499</v>
+        <v>6.867998258193527</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.23420554438781</v>
+        <v>59.47136445059976</v>
       </c>
       <c r="D33" t="n">
-        <v>6.312302489623745</v>
+        <v>6.349843274660539</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.32058088277157</v>
+        <v>57.14816277010955</v>
       </c>
       <c r="D34" t="n">
-        <v>5.955524298426178</v>
+        <v>5.93208225912901</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.58761479475666</v>
+        <v>55.77851265264137</v>
       </c>
       <c r="D35" t="n">
-        <v>6.013063283008304</v>
+        <v>6.998818716844294</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.95795344116323</v>
+        <v>55.87443983158975</v>
       </c>
       <c r="D36" t="n">
-        <v>6.341586990691213</v>
+        <v>5.451094294177236</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.42543141373519</v>
+        <v>56.11674158685162</v>
       </c>
       <c r="D37" t="n">
-        <v>5.985133437990196</v>
+        <v>6.630805112751977</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.68081528122316</v>
+        <v>54.8481256631225</v>
       </c>
       <c r="D38" t="n">
-        <v>6.73728261409101</v>
+        <v>5.726192237129585</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.30889088415554</v>
+        <v>52.065283336249</v>
       </c>
       <c r="D39" t="n">
-        <v>6.068034453149306</v>
+        <v>6.00338603933523</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.41167520034287</v>
+        <v>51.76840973667419</v>
       </c>
       <c r="D40" t="n">
-        <v>6.949586067993935</v>
+        <v>7.03450182016965</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.28913815178127</v>
+        <v>50.23379316969463</v>
       </c>
       <c r="D41" t="n">
-        <v>6.55330123475906</v>
+        <v>7.135309155708346</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.4147896300654</v>
+        <v>51.62207474183452</v>
       </c>
       <c r="D42" t="n">
-        <v>7.305686343864257</v>
+        <v>6.432698745912113</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.84976866531929</v>
+        <v>48.75833195774262</v>
       </c>
       <c r="D43" t="n">
-        <v>6.603141250350632</v>
+        <v>6.341052877058871</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.06445943695718</v>
+        <v>47.82544506595945</v>
       </c>
       <c r="D44" t="n">
-        <v>6.709431118779711</v>
+        <v>7.347083196218995</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.75873422701742</v>
+        <v>45.99358003117215</v>
       </c>
       <c r="D45" t="n">
-        <v>6.48704888073101</v>
+        <v>6.702726400696456</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.05439265473637</v>
+        <v>45.8117363359769</v>
       </c>
       <c r="D46" t="n">
-        <v>7.62378616782061</v>
+        <v>7.055439489783777</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.11427389075471</v>
+        <v>45.32613471093683</v>
       </c>
       <c r="D47" t="n">
-        <v>6.180863108394243</v>
+        <v>6.610042468763407</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.28662120198952</v>
+        <v>43.08354791610272</v>
       </c>
       <c r="D48" t="n">
-        <v>6.727519576526714</v>
+        <v>5.393490454734506</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.68510991873043</v>
+        <v>42.51695307919678</v>
       </c>
       <c r="D49" t="n">
-        <v>6.854324125004651</v>
+        <v>6.003889197420588</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.70053179254748</v>
+        <v>41.44851281714902</v>
       </c>
       <c r="D50" t="n">
-        <v>6.62852510117573</v>
+        <v>7.023783184316096</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.90784655032926</v>
+        <v>41.44264492295556</v>
       </c>
       <c r="D51" t="n">
-        <v>6.606458801315436</v>
+        <v>7.813936602463623</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.37618162787094</v>
+        <v>40.98521397049009</v>
       </c>
       <c r="D52" t="n">
-        <v>7.355450152824673</v>
+        <v>6.898607111157923</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.85937087397365</v>
+        <v>38.78847189396583</v>
       </c>
       <c r="D53" t="n">
-        <v>6.25142524728893</v>
+        <v>6.491014690671302</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.19548379755382</v>
+        <v>37.62353740778312</v>
       </c>
       <c r="D54" t="n">
-        <v>6.123938862375231</v>
+        <v>6.565477185786538</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.0114208216502</v>
+        <v>37.64320726742162</v>
       </c>
       <c r="D55" t="n">
-        <v>6.264115121990782</v>
+        <v>6.863846094901331</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.69219847543405</v>
+        <v>35.4268227638017</v>
       </c>
       <c r="D56" t="n">
-        <v>6.700960840407314</v>
+        <v>6.464346809351958</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.29145751656412</v>
+        <v>36.13888342719187</v>
       </c>
       <c r="D57" t="n">
-        <v>6.292565321162977</v>
+        <v>5.706145845225571</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.11622025541959</v>
+        <v>34.68679461374969</v>
       </c>
       <c r="D58" t="n">
-        <v>6.974377441383443</v>
+        <v>6.279092855302382</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.42456764325859</v>
+        <v>33.3410484949699</v>
       </c>
       <c r="D59" t="n">
-        <v>7.211169884595488</v>
+        <v>5.863446880282432</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.42633158021618</v>
+        <v>31.63856009642089</v>
       </c>
       <c r="D60" t="n">
-        <v>7.015800816391942</v>
+        <v>6.869247624334643</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.10726416556827</v>
+        <v>31.51109271245257</v>
       </c>
       <c r="D61" t="n">
-        <v>6.198283883617766</v>
+        <v>7.671946738379959</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.90847205801707</v>
+        <v>29.41212454082976</v>
       </c>
       <c r="D62" t="n">
-        <v>6.913940233673327</v>
+        <v>6.560727038522546</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.28455908851615</v>
+        <v>29.25877859219096</v>
       </c>
       <c r="D63" t="n">
-        <v>6.873095690810149</v>
+        <v>6.74251653947398</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.57435001251888</v>
+        <v>27.81407120298837</v>
       </c>
       <c r="D64" t="n">
-        <v>6.653470731891646</v>
+        <v>6.61652659473029</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.64119901245943</v>
+        <v>25.841950832087</v>
       </c>
       <c r="D65" t="n">
-        <v>6.870800625400375</v>
+        <v>7.284805482835181</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.46422446244831</v>
+        <v>27.15555685308206</v>
       </c>
       <c r="D66" t="n">
-        <v>6.775536095547968</v>
+        <v>6.487855402013252</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.29813603590449</v>
+        <v>25.05414154000511</v>
       </c>
       <c r="D67" t="n">
-        <v>6.493422298841868</v>
+        <v>6.555082339230213</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.88386982911439</v>
+        <v>23.91280512964194</v>
       </c>
       <c r="D68" t="n">
-        <v>5.998061942784309</v>
+        <v>6.185525828537079</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.79935414244773</v>
+        <v>23.12586530603355</v>
       </c>
       <c r="D69" t="n">
-        <v>7.017369058097297</v>
+        <v>8.032258570069409</v>
       </c>
     </row>
   </sheetData>
